--- a/ResultadoEleicoesDistritos/LEIRIA_ANSIÃO.xlsx
+++ b/ResultadoEleicoesDistritos/LEIRIA_ANSIÃO.xlsx
@@ -597,64 +597,64 @@
         <v>3299</v>
       </c>
       <c r="H2" t="n">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="I2" t="n">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J2" t="n">
-        <v>1351</v>
+        <v>1348</v>
       </c>
       <c r="K2" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="L2" t="n">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="M2" t="n">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="N2" t="n">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="O2" t="n">
         <v>1</v>
       </c>
       <c r="P2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R2" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="S2" t="n">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="T2" t="n">
-        <v>237</v>
+        <v>208</v>
       </c>
       <c r="U2" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="V2" t="n">
-        <v>2099</v>
+        <v>2087</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>2114</v>
+        <v>2105</v>
       </c>
       <c r="Y2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Z2" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="AA2" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
